--- a/source_plates/2200705_source_plate2_checking.xlsx
+++ b/source_plates/2200705_source_plate2_checking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ADB3DE-25F8-9E44-8AF0-35E0C524CB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBADD09C-068D-084B-8032-BC1561905175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18940" yWindow="2340" windowWidth="16140" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>Plasmid</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>H2</t>
-  </si>
-  <si>
-    <t>need to add</t>
   </si>
 </sst>
 </file>
@@ -345,7 +342,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -469,7 +466,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -870,11 +867,9 @@
         <v>592.20000000000005</v>
       </c>
       <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F4" s="13"/>
       <c r="J4" s="11">
         <v>615.9031257456453</v>
       </c>
@@ -939,11 +934,9 @@
         <v>238.4</v>
       </c>
       <c r="E7" s="7">
-        <v>50</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F7" s="13"/>
       <c r="I7" s="5"/>
       <c r="J7" s="11">
         <v>221.23715169278719</v>
@@ -969,11 +962,9 @@
         <v>109.6</v>
       </c>
       <c r="E8" s="7">
-        <v>50</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F8" s="13"/>
       <c r="I8" s="5"/>
       <c r="J8" s="11">
         <v>109.4074235561046</v>
@@ -999,11 +990,9 @@
         <v>197.2</v>
       </c>
       <c r="E9" s="7">
-        <v>50</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F9" s="13"/>
       <c r="I9" s="5"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -1045,11 +1034,9 @@
         <v>233.4</v>
       </c>
       <c r="E11" s="7">
-        <v>50</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F11" s="13"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="7"/>
@@ -1068,11 +1055,9 @@
         <v>218.8</v>
       </c>
       <c r="E12" s="7">
-        <v>50</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F12" s="13"/>
       <c r="J12" s="11">
         <v>270.89849424874802</v>
       </c>
@@ -1097,11 +1082,9 @@
         <v>176.5</v>
       </c>
       <c r="E13" s="7">
-        <v>50</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>48.2</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="I13" s="5"/>
       <c r="J13" s="11">
         <v>163.30370047396426</v>
@@ -1127,11 +1110,9 @@
         <v>119.5</v>
       </c>
       <c r="E14" s="7">
-        <v>50</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F14" s="13"/>
       <c r="I14" s="5"/>
       <c r="J14" s="11">
         <v>73.072854847435181</v>
@@ -1698,11 +1679,9 @@
         <v>1.8</v>
       </c>
       <c r="E40" s="7">
-        <v>50</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1718,11 +1697,9 @@
         <v>0.18</v>
       </c>
       <c r="E41" s="7">
-        <v>50</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -1738,11 +1715,9 @@
         <v>33.299999999999997</v>
       </c>
       <c r="E42" s="7">
-        <v>50</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
@@ -1758,11 +1733,9 @@
         <v>40.229999999999997</v>
       </c>
       <c r="E43" s="7">
-        <v>50</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
@@ -1778,11 +1751,9 @@
         <v>22.3</v>
       </c>
       <c r="E44" s="7">
-        <v>50</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>101</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F44" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/source_plates/2200705_source_plate2_checking.xlsx
+++ b/source_plates/2200705_source_plate2_checking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBADD09C-068D-084B-8032-BC1561905175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D40F9A5-6D86-4098-85F3-2860E752B37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="2340" windowWidth="16140" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -775,20 +775,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M40" sqref="J1:M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,7 +853,7 @@
         <v>220705</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -880,7 +880,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -948,7 +948,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -976,7 +976,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>68</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>69</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>88</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>89</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>91</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>92</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>93</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>89</v>
       </c>
@@ -1395,7 +1395,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>94</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>95</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>40</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>42</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>44</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>23</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>47</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>62</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>63</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>71</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>72</v>
       </c>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>22</v>
       </c>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>23</v>
       </c>
